--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H2">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I2">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J2">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>43.64853880099682</v>
+        <v>66.25891939597956</v>
       </c>
       <c r="R2">
-        <v>43.64853880099682</v>
+        <v>596.3302745638159</v>
       </c>
       <c r="S2">
-        <v>0.002130499009673254</v>
+        <v>0.002456860618614463</v>
       </c>
       <c r="T2">
-        <v>0.002130499009673254</v>
+        <v>0.003623674717061449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H3">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I3">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J3">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>380.6968833263009</v>
+        <v>436.3571430419188</v>
       </c>
       <c r="R3">
-        <v>380.6968833263009</v>
+        <v>3927.21428737727</v>
       </c>
       <c r="S3">
-        <v>0.01858193550556739</v>
+        <v>0.01617999040980224</v>
       </c>
       <c r="T3">
-        <v>0.01858193550556739</v>
+        <v>0.02386420366140339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H4">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I4">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J4">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>310.73582821016</v>
+        <v>366.4575147086595</v>
       </c>
       <c r="R4">
-        <v>310.73582821016</v>
+        <v>3298.117632377935</v>
       </c>
       <c r="S4">
-        <v>0.01516711423697476</v>
+        <v>0.0135881334089138</v>
       </c>
       <c r="T4">
-        <v>0.01516711423697476</v>
+        <v>0.0200414199783572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H5">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I5">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J5">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>343.2152037258476</v>
+        <v>377.2559553146364</v>
       </c>
       <c r="R5">
-        <v>343.2152037258476</v>
+        <v>3395.303597831728</v>
       </c>
       <c r="S5">
-        <v>0.01675244284754896</v>
+        <v>0.01398853630876673</v>
       </c>
       <c r="T5">
-        <v>0.01675244284754896</v>
+        <v>0.02063198252547206</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H6">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I6">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J6">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>135.2793029484046</v>
+        <v>161.8509621536543</v>
       </c>
       <c r="R6">
-        <v>135.2793029484046</v>
+        <v>971.1057729219259</v>
       </c>
       <c r="S6">
-        <v>0.006603025642505179</v>
+        <v>0.006001384547546688</v>
       </c>
       <c r="T6">
-        <v>0.006603025642505179</v>
+        <v>0.00590104441620634</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H7">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I7">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J7">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>51.1986283463417</v>
+        <v>79.72177777100622</v>
       </c>
       <c r="R7">
-        <v>51.1986283463417</v>
+        <v>717.495999939056</v>
       </c>
       <c r="S7">
-        <v>0.002499021272758366</v>
+        <v>0.002956059320572074</v>
       </c>
       <c r="T7">
-        <v>0.002499021272758366</v>
+        <v>0.004359953243148055</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H8">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I8">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J8">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>446.5477832121326</v>
+        <v>525.0186315065355</v>
       </c>
       <c r="R8">
-        <v>446.5477832121326</v>
+        <v>4725.16768355882</v>
       </c>
       <c r="S8">
-        <v>0.02179613879499464</v>
+        <v>0.01946753148928556</v>
       </c>
       <c r="T8">
-        <v>0.02179613879499464</v>
+        <v>0.02871306623047453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H9">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I9">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J9">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>364.4852409598035</v>
+        <v>440.9164051638862</v>
       </c>
       <c r="R9">
-        <v>364.4852409598035</v>
+        <v>3968.247646474976</v>
       </c>
       <c r="S9">
-        <v>0.01779064010471857</v>
+        <v>0.01634904646534186</v>
       </c>
       <c r="T9">
-        <v>0.01779064010471857</v>
+        <v>0.02411354794637571</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H10">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I10">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J10">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>402.5827242118885</v>
+        <v>453.9089334168497</v>
       </c>
       <c r="R10">
-        <v>402.5827242118885</v>
+        <v>4085.180400751648</v>
       </c>
       <c r="S10">
-        <v>0.01965019033410121</v>
+        <v>0.0168308054691399</v>
       </c>
       <c r="T10">
-        <v>0.01965019033410121</v>
+        <v>0.02482410429969631</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H11">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I11">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J11">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>158.6791893810054</v>
+        <v>194.7367472102193</v>
       </c>
       <c r="R11">
-        <v>158.6791893810054</v>
+        <v>1168.420483261316</v>
       </c>
       <c r="S11">
-        <v>0.007745181513940306</v>
+        <v>0.007220779475116199</v>
       </c>
       <c r="T11">
-        <v>0.007745181513940306</v>
+        <v>0.007100051673860898</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H12">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I12">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J12">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>642.0233670921558</v>
+        <v>1122.984917600589</v>
       </c>
       <c r="R12">
-        <v>642.0233670921558</v>
+        <v>6737.909505603536</v>
       </c>
       <c r="S12">
-        <v>0.03133736398400783</v>
+        <v>0.04163993986775322</v>
       </c>
       <c r="T12">
-        <v>0.03133736398400783</v>
+        <v>0.04094374101526633</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H13">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I13">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J13">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>5599.644377306382</v>
+        <v>7395.570208364903</v>
       </c>
       <c r="R13">
-        <v>5599.644377306382</v>
+        <v>44373.42125018941</v>
       </c>
       <c r="S13">
-        <v>0.2733204164007708</v>
+        <v>0.2742254984350469</v>
       </c>
       <c r="T13">
-        <v>0.2733204164007708</v>
+        <v>0.2696405860182791</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H14">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I14">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J14">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>4570.592010266802</v>
+        <v>6210.880975885509</v>
       </c>
       <c r="R14">
-        <v>4570.592010266802</v>
+        <v>37265.28585531306</v>
       </c>
       <c r="S14">
-        <v>0.2230920442924776</v>
+        <v>0.230297581301647</v>
       </c>
       <c r="T14">
-        <v>0.2230920442924776</v>
+        <v>0.2264471215665483</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H15">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I15">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J15">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>5048.328919735947</v>
+        <v>6393.897633033914</v>
       </c>
       <c r="R15">
-        <v>5048.328919735947</v>
+        <v>38363.38579820348</v>
       </c>
       <c r="S15">
-        <v>0.2464105342228926</v>
+        <v>0.2370837833948502</v>
       </c>
       <c r="T15">
-        <v>0.2464105342228926</v>
+        <v>0.2331198617737585</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H16">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I16">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J16">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N16">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O16">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P16">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q16">
-        <v>1989.813999794904</v>
+        <v>2743.120338432899</v>
       </c>
       <c r="R16">
-        <v>1989.813999794904</v>
+        <v>10972.48135373159</v>
       </c>
       <c r="S16">
-        <v>0.09712345183706826</v>
+        <v>0.1017140694876033</v>
       </c>
       <c r="T16">
-        <v>0.09712345183706826</v>
+        <v>0.0666756409340918</v>
       </c>
     </row>
   </sheetData>
